--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-Cr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-Cr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H2">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8151536666666667</v>
+        <v>1.028288333333333</v>
       </c>
       <c r="N2">
-        <v>2.445461</v>
+        <v>3.084865</v>
       </c>
       <c r="O2">
-        <v>0.584193811627398</v>
+        <v>0.5720958559345812</v>
       </c>
       <c r="P2">
-        <v>0.584193811627398</v>
+        <v>0.5720958559345812</v>
       </c>
       <c r="Q2">
-        <v>33.37469962851733</v>
+        <v>0.5716604463033333</v>
       </c>
       <c r="R2">
-        <v>300.372296656656</v>
+        <v>5.144944016729999</v>
       </c>
       <c r="S2">
-        <v>0.1508972618813227</v>
+        <v>0.003286835306499556</v>
       </c>
       <c r="T2">
-        <v>0.1508972618813227</v>
+        <v>0.003286835306499555</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H3">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I3">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J3">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>1.303444</v>
       </c>
       <c r="O3">
-        <v>0.3113784757159743</v>
+        <v>0.2417269186310566</v>
       </c>
       <c r="P3">
-        <v>0.3113784757159743</v>
+        <v>0.2417269186310566</v>
       </c>
       <c r="Q3">
-        <v>17.78889623780266</v>
+        <v>0.2415429455653333</v>
       </c>
       <c r="R3">
-        <v>160.100066140224</v>
+        <v>2.173886510088</v>
       </c>
       <c r="S3">
-        <v>0.08042906045757377</v>
+        <v>0.001388782251166585</v>
       </c>
       <c r="T3">
-        <v>0.08042906045757378</v>
+        <v>0.001388782251166585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H4">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I4">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J4">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>0.205688</v>
       </c>
       <c r="O4">
-        <v>0.04913660725974213</v>
+        <v>0.03814534912077908</v>
       </c>
       <c r="P4">
-        <v>0.04913660725974214</v>
+        <v>0.03814534912077908</v>
       </c>
       <c r="Q4">
-        <v>2.807149742805333</v>
+        <v>0.03811631753066667</v>
       </c>
       <c r="R4">
-        <v>25.264347685248</v>
+        <v>0.343046857776</v>
       </c>
       <c r="S4">
-        <v>0.01269198568361773</v>
+        <v>0.0002191546730645525</v>
       </c>
       <c r="T4">
-        <v>0.01269198568361774</v>
+        <v>0.0002191546730645524</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H5">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I5">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J5">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07715033333333333</v>
+        <v>0.2660733333333333</v>
       </c>
       <c r="N5">
-        <v>0.231451</v>
+        <v>0.7982199999999999</v>
       </c>
       <c r="O5">
-        <v>0.05529110539688545</v>
+        <v>0.1480318763135831</v>
       </c>
       <c r="P5">
-        <v>0.05529110539688547</v>
+        <v>0.1480318763135831</v>
       </c>
       <c r="Q5">
-        <v>3.158753136410666</v>
+        <v>0.1479192124933333</v>
       </c>
       <c r="R5">
-        <v>28.428778227696</v>
+        <v>1.33127291244</v>
       </c>
       <c r="S5">
-        <v>0.01428169255600233</v>
+        <v>0.0008504805488584024</v>
       </c>
       <c r="T5">
-        <v>0.01428169255600234</v>
+        <v>0.0008504805488584021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>239.063137</v>
       </c>
       <c r="I6">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J6">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8151536666666667</v>
+        <v>1.028288333333333</v>
       </c>
       <c r="N6">
-        <v>2.445461</v>
+        <v>3.084865</v>
       </c>
       <c r="O6">
-        <v>0.584193811627398</v>
+        <v>0.5720958559345812</v>
       </c>
       <c r="P6">
-        <v>0.584193811627398</v>
+        <v>0.5720958559345812</v>
       </c>
       <c r="Q6">
-        <v>64.95773089679523</v>
+        <v>81.94194490238944</v>
       </c>
       <c r="R6">
-        <v>584.619578071157</v>
+        <v>737.4775041215049</v>
       </c>
       <c r="S6">
-        <v>0.2936938411267328</v>
+        <v>0.4711357578262529</v>
       </c>
       <c r="T6">
-        <v>0.2936938411267328</v>
+        <v>0.4711357578262529</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>239.063137</v>
       </c>
       <c r="I7">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J7">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>1.303444</v>
       </c>
       <c r="O7">
-        <v>0.3113784757159743</v>
+        <v>0.2417269186310566</v>
       </c>
       <c r="P7">
-        <v>0.3113784757159743</v>
+        <v>0.2417269186310566</v>
       </c>
       <c r="Q7">
         <v>34.62282350486978</v>
@@ -883,10 +883,10 @@
         <v>311.605411543828</v>
       </c>
       <c r="S7">
-        <v>0.1565404130565129</v>
+        <v>0.1990683795641243</v>
       </c>
       <c r="T7">
-        <v>0.156540413056513</v>
+        <v>0.1990683795641243</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>239.063137</v>
       </c>
       <c r="I8">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J8">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,10 +933,10 @@
         <v>0.205688</v>
       </c>
       <c r="O8">
-        <v>0.04913660725974213</v>
+        <v>0.03814534912077908</v>
       </c>
       <c r="P8">
-        <v>0.04913660725974214</v>
+        <v>0.03814534912077908</v>
       </c>
       <c r="Q8">
         <v>5.463602058139556</v>
@@ -945,10 +945,10 @@
         <v>49.17241852325601</v>
       </c>
       <c r="S8">
-        <v>0.02470262203882026</v>
+        <v>0.03141368317763218</v>
       </c>
       <c r="T8">
-        <v>0.02470262203882026</v>
+        <v>0.03141368317763218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>239.063137</v>
       </c>
       <c r="I9">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J9">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07715033333333333</v>
+        <v>0.2660733333333333</v>
       </c>
       <c r="N9">
-        <v>0.231451</v>
+        <v>0.7982199999999999</v>
       </c>
       <c r="O9">
-        <v>0.05529110539688545</v>
+        <v>0.1480318763135831</v>
       </c>
       <c r="P9">
-        <v>0.05529110539688547</v>
+        <v>0.1480318763135831</v>
       </c>
       <c r="Q9">
-        <v>6.147933569087445</v>
+        <v>21.20277524623778</v>
       </c>
       <c r="R9">
-        <v>55.33140212178701</v>
+        <v>190.82497721614</v>
       </c>
       <c r="S9">
-        <v>0.02779669486555845</v>
+        <v>0.1219080849930456</v>
       </c>
       <c r="T9">
-        <v>0.02779669486555846</v>
+        <v>0.1219080849930456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H10">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I10">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J10">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8151536666666667</v>
+        <v>1.028288333333333</v>
       </c>
       <c r="N10">
-        <v>2.445461</v>
+        <v>3.084865</v>
       </c>
       <c r="O10">
-        <v>0.584193811627398</v>
+        <v>0.5720958559345812</v>
       </c>
       <c r="P10">
-        <v>0.584193811627398</v>
+        <v>0.5720958559345812</v>
       </c>
       <c r="Q10">
-        <v>0.2823868917961111</v>
+        <v>0.3544506457372221</v>
       </c>
       <c r="R10">
-        <v>2.541482026165</v>
+        <v>3.190055811634999</v>
       </c>
       <c r="S10">
-        <v>0.001276757820669667</v>
+        <v>0.002037959604087226</v>
       </c>
       <c r="T10">
-        <v>0.001276757820669667</v>
+        <v>0.002037959604087225</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H11">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I11">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J11">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>1.303444</v>
       </c>
       <c r="O11">
-        <v>0.3113784757159743</v>
+        <v>0.2417269186310566</v>
       </c>
       <c r="P11">
-        <v>0.3113784757159743</v>
+        <v>0.2417269186310566</v>
       </c>
       <c r="Q11">
-        <v>0.1505137476288889</v>
+        <v>0.1497655707728889</v>
       </c>
       <c r="R11">
-        <v>1.35462372866</v>
+        <v>1.347890136956</v>
       </c>
       <c r="S11">
-        <v>0.0006805188554652693</v>
+        <v>0.0008610964234058443</v>
       </c>
       <c r="T11">
-        <v>0.0006805188554652694</v>
+        <v>0.0008610964234058443</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H12">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I12">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J12">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.205688</v>
       </c>
       <c r="O12">
-        <v>0.04913660725974213</v>
+        <v>0.03814534912077908</v>
       </c>
       <c r="P12">
-        <v>0.04913660725974214</v>
+        <v>0.03814534912077908</v>
       </c>
       <c r="Q12">
-        <v>0.02375159325777778</v>
+        <v>0.02363352834577778</v>
       </c>
       <c r="R12">
-        <v>0.21376433932</v>
+        <v>0.212701755112</v>
       </c>
       <c r="S12">
-        <v>0.0001073882440234796</v>
+        <v>0.0001358840127673313</v>
       </c>
       <c r="T12">
-        <v>0.0001073882440234796</v>
+        <v>0.0001358840127673313</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H13">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I13">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J13">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.07715033333333333</v>
+        <v>0.2660733333333333</v>
       </c>
       <c r="N13">
-        <v>0.231451</v>
+        <v>0.7982199999999999</v>
       </c>
       <c r="O13">
-        <v>0.05529110539688545</v>
+        <v>0.1480318763135831</v>
       </c>
       <c r="P13">
-        <v>0.05529110539688547</v>
+        <v>0.1480318763135831</v>
       </c>
       <c r="Q13">
-        <v>0.02672654705722222</v>
+        <v>0.09171538930888888</v>
       </c>
       <c r="R13">
-        <v>0.240538923515</v>
+        <v>0.8254385037799998</v>
       </c>
       <c r="S13">
-        <v>0.0001208389233571155</v>
+        <v>0.0005273294342457468</v>
       </c>
       <c r="T13">
-        <v>0.0001208389233571155</v>
+        <v>0.0005273294342457467</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H14">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I14">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J14">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8151536666666667</v>
+        <v>1.028288333333333</v>
       </c>
       <c r="N14">
-        <v>2.445461</v>
+        <v>3.084865</v>
       </c>
       <c r="O14">
-        <v>0.584193811627398</v>
+        <v>0.5720958559345812</v>
       </c>
       <c r="P14">
-        <v>0.584193811627398</v>
+        <v>0.5720958559345812</v>
       </c>
       <c r="Q14">
-        <v>30.59424008876722</v>
+        <v>16.63330073163889</v>
       </c>
       <c r="R14">
-        <v>275.348160798905</v>
+        <v>149.69970658475</v>
       </c>
       <c r="S14">
-        <v>0.1383259507986728</v>
+        <v>0.09563530319774163</v>
       </c>
       <c r="T14">
-        <v>0.1383259507986727</v>
+        <v>0.09563530319774162</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H15">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I15">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J15">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>1.303444</v>
       </c>
       <c r="O15">
-        <v>0.3113784757159743</v>
+        <v>0.2417269186310566</v>
       </c>
       <c r="P15">
-        <v>0.3113784757159743</v>
+        <v>0.2417269186310566</v>
       </c>
       <c r="Q15">
-        <v>16.30689619595778</v>
+        <v>7.028046944955555</v>
       </c>
       <c r="R15">
-        <v>146.76206576362</v>
+        <v>63.2524225046</v>
       </c>
       <c r="S15">
-        <v>0.07372848334642229</v>
+        <v>0.04040866039235985</v>
       </c>
       <c r="T15">
-        <v>0.0737284833464223</v>
+        <v>0.04040866039235985</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H16">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I16">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J16">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,22 +1429,22 @@
         <v>0.205688</v>
       </c>
       <c r="O16">
-        <v>0.04913660725974213</v>
+        <v>0.03814534912077908</v>
       </c>
       <c r="P16">
-        <v>0.04913660725974214</v>
+        <v>0.03814534912077908</v>
       </c>
       <c r="Q16">
-        <v>2.573284977915556</v>
+        <v>1.109050269911111</v>
       </c>
       <c r="R16">
-        <v>23.15956480124</v>
+        <v>9.981452429200001</v>
       </c>
       <c r="S16">
-        <v>0.01163461129328066</v>
+        <v>0.006376627257315015</v>
       </c>
       <c r="T16">
-        <v>0.01163461129328066</v>
+        <v>0.006376627257315014</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H17">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I17">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J17">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.07715033333333333</v>
+        <v>0.2660733333333333</v>
       </c>
       <c r="N17">
-        <v>0.231451</v>
+        <v>0.7982199999999999</v>
       </c>
       <c r="O17">
-        <v>0.05529110539688545</v>
+        <v>0.1480318763135831</v>
       </c>
       <c r="P17">
-        <v>0.05529110539688547</v>
+        <v>0.1480318763135831</v>
       </c>
       <c r="Q17">
-        <v>2.895596152539444</v>
+        <v>4.303926852555556</v>
       </c>
       <c r="R17">
-        <v>26.060365372855</v>
+        <v>38.73534167299999</v>
       </c>
       <c r="S17">
-        <v>0.01309187905196755</v>
+        <v>0.02474598133743335</v>
       </c>
       <c r="T17">
-        <v>0.01309187905196755</v>
+        <v>0.02474598133743335</v>
       </c>
     </row>
   </sheetData>
